--- a/src/main/resources/testingData/testingData.xlsx
+++ b/src/main/resources/testingData/testingData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shine/Documents/workspace/Selenium/project/livestreamboard/src/main/resources/testingData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD46639-B7BC-AE40-A1A4-822A90C15469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDEAA7F-4B2A-4B40-A45A-118286376DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1000" windowWidth="27040" windowHeight="16440" xr2:uid="{7268BDEC-0CF3-904F-A543-734CB02912B7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>LoginPage</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Testgiaodien@wiinvent.tv</t>
   </si>
   <si>
-    <t>Test@321</t>
-  </si>
-  <si>
     <t>Expected 1</t>
   </si>
   <si>
@@ -98,13 +95,15 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Test@3211</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -488,15 +487,15 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="5.1640625" collapsed="true"/>
-    <col min="2" max="2" style="1" width="10.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="13.6640625" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -508,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -526,19 +525,19 @@
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="68" x14ac:dyDescent="0.2">
@@ -552,16 +551,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -575,16 +574,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -593,6 +592,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{C99D1881-DBDE-6B4E-9BA9-F6F0FEF9F5CA}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{40655176-E186-664B-91AB-62B266E8AAE1}"/>
     <hyperlink ref="J2" r:id="rId3" xr:uid="{ACF86190-FF90-ED40-801B-005A3C911430}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{E4B2A68D-0FBF-7A41-B2F9-BDFBF030FE3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
